--- a/src/assets/formats/short.xlsx
+++ b/src/assets/formats/short.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mac\Documents\GitHub\billing-client\src\assets\formats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89BE447-45A3-4884-B9D5-96DE31260BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C38ADE3-CA19-42FE-BDFB-D54BDB44BB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{45D3D4AD-488A-416E-B4D0-07C98B8D3610}"/>
   </bookViews>
@@ -98,8 +98,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\P#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -320,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -342,12 +343,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -414,41 +451,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -766,709 +773,617 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EDD0AB-27CF-4FAB-A7E6-83000BE6AA48}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26:J26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="3" customWidth="1"/>
-    <col min="3" max="6" width="9.140625" style="3"/>
-    <col min="7" max="7" width="6.140625" style="3" customWidth="1"/>
-    <col min="8" max="9" width="4.5703125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="3.7109375" style="3" customWidth="1"/>
+    <col min="8" max="9" width="6.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="3" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
     </row>
     <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
     </row>
     <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="2" t="s">
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
     </row>
     <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="24"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="16" t="s">
+      <c r="H18" s="29"/>
+      <c r="I18" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="17"/>
+      <c r="J18" s="29"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="18" t="s">
+      <c r="F19" s="27"/>
+      <c r="G19" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="19"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="31"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="35"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="8"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="44"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="17"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="8"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="44"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="35"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="8"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="44"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="17"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="35"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="8"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="44"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="17"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="35"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="8"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="44"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="17"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="35"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="8"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="44"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="17"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="35"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
       <c r="D26" s="8"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="44"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="17"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="35"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="8"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="44"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="17"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="35"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="8"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="44"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="17"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="35"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="8"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="44"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="17"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="35"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="8"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="44"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="17"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="35"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="8"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="44"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="17"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="35"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
       <c r="D32" s="8"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="44"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="17"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="35"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="8"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="44"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="17"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="35"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
       <c r="D34" s="8"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="44"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="17"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="35"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
       <c r="D35" s="8"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="44"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="17"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="35"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
       <c r="D36" s="8"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="44"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="17"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="35"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
       <c r="D37" s="8"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="44"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="17"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="35"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
       <c r="D38" s="8"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="44"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="17"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="35"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
       <c r="D39" s="8"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="44"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="17"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="35"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
       <c r="D40" s="8"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="44"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="17"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="35"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
       <c r="D41" s="8"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="44"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="17"/>
     </row>
     <row r="42" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="35"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
       <c r="D42" s="8"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="44"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="17"/>
     </row>
     <row r="43" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="35"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
       <c r="D43" s="8"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="44"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="17"/>
     </row>
     <row r="44" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="35"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
       <c r="D44" s="8"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="44"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="17"/>
     </row>
     <row r="45" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="35"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
       <c r="D45" s="8"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="44"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="17"/>
     </row>
     <row r="46" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="35"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
       <c r="D46" s="8"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="44"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="17"/>
     </row>
     <row r="47" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="35"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
       <c r="D47" s="8"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="44"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="17"/>
     </row>
     <row r="48" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="35"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
       <c r="D48" s="8"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="44"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="17"/>
     </row>
     <row r="49" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="33" t="s">
+      <c r="A49" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="42"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="19"/>
     </row>
     <row r="50" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="39"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="39"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
     </row>
     <row r="51" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="38" t="s">
+      <c r="A51" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="38"/>
-      <c r="J51" s="38"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
     </row>
     <row r="52" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="53" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="54" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
     </row>
     <row r="55" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="40" t="s">
+      <c r="A55" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B55" s="40"/>
-      <c r="C55" s="40"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="109">
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
+  <mergeCells count="110">
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="B7:I8"/>
     <mergeCell ref="A18:D19"/>
@@ -1484,7 +1399,101 @@
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="B11:F11"/>
-    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="A48:C48"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/assets/formats/short.xlsx
+++ b/src/assets/formats/short.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mac\Documents\GitHub\billing-client\src\assets\formats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C38ADE3-CA19-42FE-BDFB-D54BDB44BB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6036FF-CC87-4F4B-993F-A9B991DEE765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{45D3D4AD-488A-416E-B4D0-07C98B8D3610}"/>
   </bookViews>
@@ -99,8 +99,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="\P#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="\₱\ #,##0.00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -370,12 +370,6 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -454,8 +448,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -773,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EDD0AB-27CF-4FAB-A7E6-83000BE6AA48}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49:J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -790,198 +790,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="45" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="45"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
     </row>
     <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="34"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="39"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="37"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="40"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="22"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="23"/>
+      <c r="G16" s="21"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="28" t="s">
+      <c r="G18" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="29"/>
-      <c r="I18" s="28" t="s">
+      <c r="H18" s="27"/>
+      <c r="I18" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="29"/>
+      <c r="J18" s="27"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
       <c r="E19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="30" t="s">
+      <c r="F19" s="25"/>
+      <c r="G19" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="31"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="31"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="29"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="8"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -991,9 +991,9 @@
       <c r="J20" s="17"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="8"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -1003,9 +1003,9 @@
       <c r="J21" s="17"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="8"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -1015,9 +1015,9 @@
       <c r="J22" s="17"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="8"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -1027,9 +1027,9 @@
       <c r="J23" s="17"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="8"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -1039,9 +1039,9 @@
       <c r="J24" s="17"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="20"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
       <c r="D25" s="8"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -1051,9 +1051,9 @@
       <c r="J25" s="17"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="20"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
       <c r="D26" s="8"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -1063,9 +1063,9 @@
       <c r="J26" s="17"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="20"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="8"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -1075,9 +1075,9 @@
       <c r="J27" s="17"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="8"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -1087,9 +1087,9 @@
       <c r="J28" s="17"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="20"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="8"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -1099,9 +1099,9 @@
       <c r="J29" s="17"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="8"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -1111,9 +1111,9 @@
       <c r="J30" s="17"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="20"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="8"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -1123,9 +1123,9 @@
       <c r="J31" s="17"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="20"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
       <c r="D32" s="8"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -1135,9 +1135,9 @@
       <c r="J32" s="17"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="20"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
       <c r="D33" s="8"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -1147,9 +1147,9 @@
       <c r="J33" s="17"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
       <c r="D34" s="8"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -1159,9 +1159,9 @@
       <c r="J34" s="17"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="20"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="8"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -1171,9 +1171,9 @@
       <c r="J35" s="17"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="20"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="8"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -1183,9 +1183,9 @@
       <c r="J36" s="17"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="20"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="8"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -1195,9 +1195,9 @@
       <c r="J37" s="17"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="20"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="8"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -1207,9 +1207,9 @@
       <c r="J38" s="17"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="20"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
       <c r="D39" s="8"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -1219,9 +1219,9 @@
       <c r="J39" s="17"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="20"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
       <c r="D40" s="8"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -1231,9 +1231,9 @@
       <c r="J40" s="17"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="20"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
       <c r="D41" s="8"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -1243,9 +1243,9 @@
       <c r="J41" s="17"/>
     </row>
     <row r="42" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="20"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="8"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -1255,9 +1255,9 @@
       <c r="J42" s="17"/>
     </row>
     <row r="43" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="20"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="8"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -1267,9 +1267,9 @@
       <c r="J43" s="17"/>
     </row>
     <row r="44" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="20"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="8"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -1279,9 +1279,9 @@
       <c r="J44" s="17"/>
     </row>
     <row r="45" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="20"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="8"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
@@ -1291,9 +1291,9 @@
       <c r="J45" s="17"/>
     </row>
     <row r="46" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="20"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
+      <c r="A46" s="18"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
       <c r="D46" s="8"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -1303,9 +1303,9 @@
       <c r="J46" s="17"/>
     </row>
     <row r="47" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="20"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
+      <c r="A47" s="18"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
       <c r="D47" s="8"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
@@ -1315,9 +1315,9 @@
       <c r="J47" s="17"/>
     </row>
     <row r="48" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="20"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
+      <c r="A48" s="18"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
       <c r="D48" s="8"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
@@ -1337,8 +1337,8 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="11"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="19"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="46"/>
     </row>
     <row r="50" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="13"/>

--- a/src/assets/formats/short.xlsx
+++ b/src/assets/formats/short.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mac\Documents\GitHub\billing-client\src\assets\formats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6036FF-CC87-4F4B-993F-A9B991DEE765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65ABA1E-75BE-4FAE-BA25-F4DAC12FA2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{45D3D4AD-488A-416E-B4D0-07C98B8D3610}"/>
   </bookViews>
@@ -67,9 +67,6 @@
     <t>No. of</t>
   </si>
   <si>
-    <t>Copies</t>
-  </si>
-  <si>
     <t>Days</t>
   </si>
   <si>
@@ -92,6 +89,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>copies</t>
   </si>
 </sst>
 </file>
@@ -100,7 +100,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="\₱\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="\₱\ #,##0.00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -343,15 +343,105 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -361,100 +451,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -773,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EDD0AB-27CF-4FAB-A7E6-83000BE6AA48}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49:J49"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -790,600 +790,693 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
     </row>
     <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="43" t="s">
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="43"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
     </row>
     <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="34"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="24"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="35"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="37"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="20"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="21"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
       <c r="E18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="H18" s="17"/>
+      <c r="I18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="27"/>
-      <c r="I18" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="27"/>
-    </row>
-    <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="29"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="29"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="19"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
       <c r="D20" s="8"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="17"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="8"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="17"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
       <c r="D22" s="8"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="17"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="8"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="17"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="38"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
       <c r="D24" s="8"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="17"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="38"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
       <c r="D25" s="8"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="17"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="38"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
       <c r="D26" s="8"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="17"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="38"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
       <c r="D27" s="8"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="17"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="38"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
       <c r="D28" s="8"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="17"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="38"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
       <c r="D29" s="8"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="17"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="38"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
       <c r="D30" s="8"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="17"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
       <c r="D31" s="8"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="17"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="38"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
       <c r="D32" s="8"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="17"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="38"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
       <c r="D33" s="8"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="17"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="38"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="18"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
       <c r="D34" s="8"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="17"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="38"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
       <c r="D35" s="8"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="17"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="38"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
       <c r="D36" s="8"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="17"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="38"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
       <c r="D37" s="8"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="17"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="38"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="18"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
       <c r="D38" s="8"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="17"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="38"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="18"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
+      <c r="A39" s="39"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
       <c r="D39" s="8"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="17"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="38"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="18"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
       <c r="D40" s="8"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="17"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="38"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
+      <c r="A41" s="39"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
       <c r="D41" s="8"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="17"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="38"/>
     </row>
     <row r="42" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="18"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
       <c r="D42" s="8"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="17"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="38"/>
     </row>
     <row r="43" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="18"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
+      <c r="A43" s="39"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
       <c r="D43" s="8"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="17"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="38"/>
     </row>
     <row r="44" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="18"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
       <c r="D44" s="8"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="17"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="38"/>
     </row>
     <row r="45" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="18"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
+      <c r="A45" s="39"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
       <c r="D45" s="8"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="17"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="38"/>
     </row>
     <row r="46" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="18"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
       <c r="D46" s="8"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="17"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="38"/>
     </row>
     <row r="47" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="18"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
+      <c r="A47" s="39"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
       <c r="D47" s="8"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="17"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="38"/>
     </row>
     <row r="48" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="18"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
+      <c r="A48" s="39"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
       <c r="D48" s="8"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="17"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="38"/>
     </row>
     <row r="49" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="11"/>
+      <c r="A49" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="36"/>
       <c r="I49" s="45"/>
       <c r="J49" s="46"/>
     </row>
     <row r="50" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
     </row>
     <row r="51" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
+      <c r="A51" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
     </row>
     <row r="52" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="53" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="54" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
+      <c r="A54" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
     </row>
     <row r="55" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
+      <c r="A55" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="44"/>
+      <c r="C55" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="110">
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="B7:I8"/>
     <mergeCell ref="A18:D19"/>
@@ -1401,99 +1494,6 @@
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="A48:C48"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
